--- a/example_reports/EJEMPLO-DATOS-PACIENTES.xlsx
+++ b/example_reports/EJEMPLO-DATOS-PACIENTES.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Esteban Suarez Prado\Agil\example_reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Pacientes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
   <si>
     <t>Código</t>
   </si>
@@ -123,29 +128,83 @@
     <t>Fecha Nac</t>
   </si>
   <si>
-    <t>PPR1</t>
-  </si>
-  <si>
     <t>Pardo</t>
   </si>
   <si>
     <t>Siles</t>
   </si>
   <si>
-    <t>Jose Antonio</t>
-  </si>
-  <si>
-    <t>Aistente</t>
-  </si>
-  <si>
     <t>O RH+</t>
+  </si>
+  <si>
+    <t>Chofer</t>
+  </si>
+  <si>
+    <t>Jose Antonio2</t>
+  </si>
+  <si>
+    <t>Jose Antonio3</t>
+  </si>
+  <si>
+    <t>Jose Antonio4</t>
+  </si>
+  <si>
+    <t>Jose Antonio5</t>
+  </si>
+  <si>
+    <t>Jose Antonio6</t>
+  </si>
+  <si>
+    <t>Jose Antonio7</t>
+  </si>
+  <si>
+    <t>Jose Antonio8</t>
+  </si>
+  <si>
+    <t>Jose Antonio9</t>
+  </si>
+  <si>
+    <t>Jose Antonio10</t>
+  </si>
+  <si>
+    <t>Jose Antonio11</t>
+  </si>
+  <si>
+    <t>PPR11</t>
+  </si>
+  <si>
+    <t>PPR12</t>
+  </si>
+  <si>
+    <t>PPR13</t>
+  </si>
+  <si>
+    <t>PPR14</t>
+  </si>
+  <si>
+    <t>PPR15</t>
+  </si>
+  <si>
+    <t>PPR16</t>
+  </si>
+  <si>
+    <t>PPR17</t>
+  </si>
+  <si>
+    <t>PPR18</t>
+  </si>
+  <si>
+    <t>PPR19</t>
+  </si>
+  <si>
+    <t>PPR20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,10 +241,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,21 +518,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
@@ -480,9 +540,10 @@
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="14" max="14" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,18 +620,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>4891483</v>
@@ -579,7 +640,7 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1">
         <v>36946</v>
@@ -596,8 +657,8 @@
       <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
-        <v>38</v>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -633,55 +694,705 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>4891484</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36947</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <v>3447574</v>
+      </c>
+      <c r="L3">
+        <v>73198551</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3">
+        <v>3717183</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3">
+        <v>452</v>
+      </c>
+      <c r="W3">
+        <v>4425030</v>
+      </c>
+      <c r="X3">
+        <v>77785930</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>4891485</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36948</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>3447574</v>
+      </c>
+      <c r="L4">
+        <v>73198551</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4">
+        <v>3717184</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4">
+        <v>452</v>
+      </c>
+      <c r="W4">
+        <v>4425030</v>
+      </c>
+      <c r="X4">
+        <v>77785930</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>4891486</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1">
+        <v>36949</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>3447574</v>
+      </c>
+      <c r="L5">
+        <v>73198551</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5">
+        <v>3717185</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5">
+        <v>452</v>
+      </c>
+      <c r="W5">
+        <v>4425030</v>
+      </c>
+      <c r="X5">
+        <v>77785930</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>4891487</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1">
+        <v>36950</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>3447574</v>
+      </c>
+      <c r="L6">
+        <v>73198551</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6">
+        <v>3717186</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6">
+        <v>452</v>
+      </c>
+      <c r="W6">
+        <v>4425030</v>
+      </c>
+      <c r="X6">
+        <v>77785930</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>4891488</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1">
+        <v>36951</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>3447574</v>
+      </c>
+      <c r="L7">
+        <v>73198551</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7">
+        <v>3717187</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7">
+        <v>452</v>
+      </c>
+      <c r="W7">
+        <v>4425030</v>
+      </c>
+      <c r="X7">
+        <v>77785930</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>4891489</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1">
+        <v>36952</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>3447574</v>
+      </c>
+      <c r="L8">
+        <v>73198551</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8">
+        <v>3717188</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8">
+        <v>452</v>
+      </c>
+      <c r="W8">
+        <v>4425030</v>
+      </c>
+      <c r="X8">
+        <v>77785930</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>4891490</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1">
+        <v>36953</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>3447574</v>
+      </c>
+      <c r="L9">
+        <v>73198551</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9">
+        <v>3717189</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9">
+        <v>452</v>
+      </c>
+      <c r="W9">
+        <v>4425030</v>
+      </c>
+      <c r="X9">
+        <v>77785930</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>4891491</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1">
+        <v>36954</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>3447574</v>
+      </c>
+      <c r="L10">
+        <v>73198551</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10">
+        <v>3717190</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10">
+        <v>452</v>
+      </c>
+      <c r="W10">
+        <v>4425030</v>
+      </c>
+      <c r="X10">
+        <v>77785930</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>4891492</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1">
+        <v>36955</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>3447574</v>
+      </c>
+      <c r="L11">
+        <v>73198551</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11">
+        <v>3717191</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11">
+        <v>452</v>
+      </c>
+      <c r="W11">
+        <v>4425030</v>
+      </c>
+      <c r="X11">
+        <v>77785930</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:15">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="H17" s="1"/>
-    </row>
-    <row r="20" spans="8:15">
+      <c r="R17" s="2"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>